--- a/biology/Zoologie/Bouscarle_des_Palau/Bouscarle_des_Palau.xlsx
+++ b/biology/Zoologie/Bouscarle_des_Palau/Bouscarle_des_Palau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horornis annae
 La Bouscarle des Palau (Horornis annae) est une espèce de passereaux de la famille des Cettiidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique des îles Palaos.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bouscarle des Palau mesure 16,5 cm.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hartlaub &amp; Finsch, 1868 : On a collection of birds from the Pelew Islands. Proceedings of the Zoological Society of London, vol. 1868, p. 4-9 (texte intégral).</t>
         </is>
